--- a/Assets/Generic Categories.xlsx
+++ b/Assets/Generic Categories.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/Assets/Generic Categories.xlsx
+++ b/Assets/Generic Categories.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17870"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -422,7 +422,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -450,84 +452,84 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Generic Categories.xlsx
+++ b/Assets/Generic Categories.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>hus</t>
   </si>
@@ -103,6 +103,36 @@
   </si>
   <si>
     <t>bilforsikring</t>
+  </si>
+  <si>
+    <t>bil</t>
+  </si>
+  <si>
+    <t>avis</t>
+  </si>
+  <si>
+    <t>spotify</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>mobil</t>
+  </si>
+  <si>
+    <t>fitness</t>
+  </si>
+  <si>
+    <t>rejse</t>
+  </si>
+  <si>
+    <t>transport</t>
   </si>
 </sst>
 </file>
@@ -420,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,13 +511,16 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -526,9 +559,54 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B19" t="s">
         <v>10</v>
       </c>
     </row>
